--- a/営業粗利計算.xlsx
+++ b/営業粗利計算.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\awesome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CBF30E6-D73B-4FC7-82CD-8523F05EFA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867AC717-AAA8-48F4-83E0-7F437F4B8184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A3C49799-E89F-47EA-A291-9F6F8BC7BADE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{A3C49799-E89F-47EA-A291-9F6F8BC7BADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="物件管理" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="NW">物件管理!$D$3:$D$8</definedName>
+    <definedName name="ビジネスフォン">物件管理!$C$3:$C$8</definedName>
+    <definedName name="複合機">物件管理!$B$3:$B$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>物件</t>
     <rPh sb="0" eb="2">
@@ -106,6 +111,163 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複合機</t>
+  </si>
+  <si>
+    <t>複合機</t>
+    <rPh sb="0" eb="3">
+      <t>フクゴウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスフォン</t>
+  </si>
+  <si>
+    <t>ビジネスフォン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>NW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MX-2661</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MX-2000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLATIA2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLATIA2V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UTM</t>
+  </si>
+  <si>
+    <t>UTM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3段給紙</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2段給紙</t>
+    <rPh sb="1" eb="4">
+      <t>ダンキュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末1</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末2</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheckPoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fortigate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StoreBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LayDrive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1段給紙</t>
+    <rPh sb="1" eb="4">
+      <t>ダンキュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末3</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末4</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配線処理</t>
+    <rPh sb="0" eb="4">
+      <t>ハイセンショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配線処理2</t>
+    <rPh sb="0" eb="4">
+      <t>ハイセンショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商材</t>
+    <rPh sb="0" eb="2">
+      <t>ショウザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機器名</t>
+    <rPh sb="0" eb="2">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工事内容</t>
+    <rPh sb="0" eb="4">
+      <t>コウジナイヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -130,15 +292,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -208,13 +394,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,6 +441,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE15B4A-334A-43D4-A23C-AD11E9189AB6}">
   <dimension ref="B2:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -700,15 +916,263 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FE582C-1CE3-44CA-8459-02DCF7981608}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="12.0625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B18" xr:uid="{3855BAC1-A218-4FE9-B971-853545C36FED}">
+      <formula1>"複合機,ビジネスフォン,NW"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C18" xr:uid="{C400648C-8BDA-477A-B5E5-C6D6A713FB94}">
+      <formula1>INDIRECT($B14)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/営業粗利計算.xlsx
+++ b/営業粗利計算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\awesome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867AC717-AAA8-48F4-83E0-7F437F4B8184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BC6739-393A-4943-8379-B4EF0920077D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{A3C49799-E89F-47EA-A291-9F6F8BC7BADE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A3C49799-E89F-47EA-A291-9F6F8BC7BADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,28 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
-  <si>
-    <t>物件</t>
-    <rPh sb="0" eb="2">
-      <t>ブッケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>導入日時</t>
-    <rPh sb="0" eb="2">
-      <t>ドウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>原価</t>
     <rPh sb="0" eb="2">
@@ -267,6 +246,16 @@
     <t>工事内容</t>
     <rPh sb="0" eb="4">
       <t>コウジナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導入日</t>
+    <rPh sb="0" eb="2">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -324,74 +313,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -415,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -428,34 +355,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,56 +684,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE15B4A-334A-43D4-A23C-AD11E9189AB6}">
-  <dimension ref="B2:O8"/>
+  <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
+    <col min="2" max="2" width="15.0625" customWidth="1"/>
     <col min="3" max="3" width="10.8125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.7">
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="N2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>0</v>
-      </c>
       <c r="O2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.7">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>43487</v>
@@ -830,36 +737,30 @@
         <v>8000</v>
       </c>
       <c r="E3" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2">
         <v>10000</v>
       </c>
-      <c r="F3" s="2">
-        <v>72</v>
-      </c>
-      <c r="G3">
+      <c r="I3">
         <f ca="1">DATEDIF(C3,TODAY(),"m")</f>
         <v>35</v>
       </c>
-      <c r="H3">
+      <c r="J3" t="e">
         <f>IF(B3="A",1000000,IF(B3="B",800000,blank))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J3">
+        <v>#NAME?</v>
+      </c>
+      <c r="N3">
         <v>1.64</v>
       </c>
-      <c r="K3">
-        <f ca="1">E3*F3-(D3*G3)-H3</f>
-        <v>-560000</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4">
-        <v>100000</v>
+      <c r="O3" t="e">
+        <f ca="1">#REF!*H3-(D3*I3)-J3</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.7">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>43427</v>
@@ -868,47 +769,141 @@
         <v>8000</v>
       </c>
       <c r="E4" s="2">
+        <v>72</v>
+      </c>
+      <c r="H4" s="2">
         <v>10000</v>
       </c>
-      <c r="F4" s="2">
-        <v>72</v>
-      </c>
-      <c r="G4">
+      <c r="I4">
         <f ca="1">DATEDIF(C4,TODAY(),"m")</f>
         <v>37</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <f>IF(B4="A",1000000,IF(B4="B",800000,blank))</f>
         <v>800000</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>1.64</v>
       </c>
-      <c r="K4">
-        <f ca="1">E4*F4-(D4*G4)-H4</f>
-        <v>-376000</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
+      <c r="O4" t="e">
+        <f ca="1">#REF!*H4-(D4*I4)-J4</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="N8" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="N8" s="8"/>
       <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 B12:B16" xr:uid="{8E28C838-F5C5-4127-9C10-10D46F71D3CB}">
+      <formula1>"複合機,ビジネスフォン,NW"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C16" xr:uid="{270DD3E4-BD34-4D9C-BD3A-D9DBF1E35EF4}">
+      <formula1>INDIRECT($B12)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -918,7 +913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FE582C-1CE3-44CA-8459-02DCF7981608}">
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -928,239 +925,239 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/営業粗利計算.xlsx
+++ b/営業粗利計算.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\awesome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BC6739-393A-4943-8379-B4EF0920077D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038ACFF6-F619-4D6E-B44B-B6606BC2DF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A3C49799-E89F-47EA-A291-9F6F8BC7BADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="物件管理" sheetId="2" r:id="rId2"/>
+    <sheet name="物件金額" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="CheckPoint">物件管理!$K$3:$K$8</definedName>
+    <definedName name="MX_2000">物件管理!$F$3:$F$8</definedName>
+    <definedName name="MX_2661">物件管理!$E$3:$E$8</definedName>
     <definedName name="NW">物件管理!$D$3:$D$8</definedName>
+    <definedName name="PLATIA2">物件管理!$G$3:$G$8</definedName>
+    <definedName name="PLATIA2V">物件管理!$H$3:$H$8</definedName>
+    <definedName name="UTM">物件管理!$I$3:$I$8</definedName>
+    <definedName name="サーバー">物件管理!$J$3:$J$8</definedName>
     <definedName name="ビジネスフォン">物件管理!$C$3:$C$8</definedName>
     <definedName name="複合機">物件管理!$B$3:$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>原価</t>
     <rPh sb="0" eb="2">
@@ -89,10 +98,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>複合機</t>
   </si>
   <si>
@@ -117,14 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MX-2661</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MX-2000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PLATIA2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -134,14 +131,6 @@
   </si>
   <si>
     <t>UTM</t>
-  </si>
-  <si>
-    <t>UTM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバー</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>3段給紙</t>
@@ -179,10 +168,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Fortigate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>StoreBox</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -256,6 +241,44 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLATIA2</t>
+  </si>
+  <si>
+    <t>MX_2000</t>
+  </si>
+  <si>
+    <t>MX_2000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MX_2661</t>
+  </si>
+  <si>
+    <t>MX_2661</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheckPoint</t>
+  </si>
+  <si>
+    <t>VPNアカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト工事費</t>
+    <rPh sb="3" eb="6">
+      <t>コウジヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機器名</t>
+    <rPh sb="0" eb="3">
+      <t>キキメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -342,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,6 +391,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE15B4A-334A-43D4-A23C-AD11E9189AB6}">
-  <dimension ref="B2:O16"/>
+  <dimension ref="B2:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -699,10 +725,10 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.7">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -727,8 +753,9 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3" t="str">
+        <f>C8</f>
+        <v>MX_2661</v>
       </c>
       <c r="C3" s="1">
         <v>43487</v>
@@ -746,9 +773,9 @@
         <f ca="1">DATEDIF(C3,TODAY(),"m")</f>
         <v>35</v>
       </c>
-      <c r="J3" t="e">
-        <f>IF(B3="A",1000000,IF(B3="B",800000,blank))</f>
-        <v>#NAME?</v>
+      <c r="J3">
+        <f>VLOOKUP(B3,物件金額!B2:C12,2,FALSE)</f>
+        <v>1000000</v>
       </c>
       <c r="N3">
         <v>1.64</v>
@@ -759,66 +786,88 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43427</v>
-      </c>
-      <c r="D4" s="2">
-        <v>8000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>72</v>
-      </c>
-      <c r="H4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I4">
-        <f ca="1">DATEDIF(C4,TODAY(),"m")</f>
-        <v>37</v>
-      </c>
-      <c r="J4">
-        <f>IF(B4="A",1000000,IF(B4="B",800000,blank))</f>
-        <v>800000</v>
-      </c>
-      <c r="N4">
-        <v>1.64</v>
-      </c>
-      <c r="O4" t="e">
-        <f ca="1">#REF!*H4-(D4*I4)-J4</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.7">
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.7">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -829,10 +878,14 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.7">
       <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -840,68 +893,17 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.7">
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 B12:B16" xr:uid="{8E28C838-F5C5-4127-9C10-10D46F71D3CB}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12" xr:uid="{8E28C838-F5C5-4127-9C10-10D46F71D3CB}">
       <formula1>"複合機,ビジネスフォン,NW"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C16" xr:uid="{270DD3E4-BD34-4D9C-BD3A-D9DBF1E35EF4}">
-      <formula1>INDIRECT($B12)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C12" xr:uid="{934B1FD7-687B-4A65-AC89-02ADC2F58749}">
+      <formula1>INDIRECT($B8)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D12" xr:uid="{228808D6-9372-46CC-82C0-CC027EDF2B6C}">
+      <formula1>INDIRECT($C8)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -911,265 +913,432 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FE582C-1CE3-44CA-8459-02DCF7981608}">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="9" max="9" width="12.0625" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="J4" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.7">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="K5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="K6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.7">
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B18" xr:uid="{3855BAC1-A218-4FE9-B971-853545C36FED}">
       <formula1>"複合機,ビジネスフォン,NW"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C18" xr:uid="{C400648C-8BDA-477A-B5E5-C6D6A713FB94}">
       <formula1>INDIRECT($B14)</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D18" xr:uid="{FE1C13C4-AACA-40E2-891B-5F3F94E204FB}">
+      <formula1>INDIRECT($C14)</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35025CDD-755F-4A98-AD4A-75BA2B11423B}">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>1000000</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>800000</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>500000</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>400000</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>50000</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>40000</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>30000</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/営業粗利計算.xlsx
+++ b/営業粗利計算.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\awesome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038ACFF6-F619-4D6E-B44B-B6606BC2DF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8F018B-9473-4FA5-AC71-2F04DF846C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A3C49799-E89F-47EA-A291-9F6F8BC7BADE}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>原価</t>
     <rPh sb="0" eb="2">
@@ -84,13 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>月額</t>
-    <rPh sb="0" eb="2">
-      <t>ゲツガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>契約年数</t>
     <rPh sb="0" eb="4">
       <t>ケイヤクネンスウ</t>
@@ -256,9 +249,6 @@
   </si>
   <si>
     <t>MX_2661</t>
-  </si>
-  <si>
-    <t>MX_2661</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -279,6 +269,81 @@
     <t>機器名</t>
     <rPh sb="0" eb="3">
       <t>キキメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上－原価　粗利</t>
+  </si>
+  <si>
+    <t>売上×料率(%)＝リース料(月額)</t>
+  </si>
+  <si>
+    <t>月額(現在)</t>
+    <rPh sb="0" eb="2">
+      <t>ゲツガク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約年数(現在)</t>
+    <rPh sb="0" eb="4">
+      <t>ケイヤクネンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6年　1.62</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5年　1.89</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7年　1.44</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7年リース</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6年リース</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5年リース</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リース料金</t>
+    <rPh sb="3" eb="5">
+      <t>リョウキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -710,31 +775,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE15B4A-334A-43D4-A23C-AD11E9189AB6}">
-  <dimension ref="B2:O12"/>
+  <dimension ref="B2:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="15.0625" customWidth="1"/>
     <col min="3" max="3" width="10.8125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="14.8125" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="16" max="16" width="10.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -751,11 +822,14 @@
       <c r="O2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.7">
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B3" t="str">
         <f>C8</f>
-        <v>MX_2661</v>
+        <v>MX_2000</v>
       </c>
       <c r="C3" s="1">
         <v>43487</v>
@@ -766,8 +840,11 @@
       <c r="E3" s="2">
         <v>72</v>
       </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
       <c r="H3" s="2">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="I3">
         <f ca="1">DATEDIF(C3,TODAY(),"m")</f>
@@ -775,33 +852,38 @@
       </c>
       <c r="J3">
         <f>VLOOKUP(B3,物件金額!B2:C12,2,FALSE)</f>
-        <v>1000000</v>
+        <v>800000</v>
       </c>
       <c r="N3">
-        <v>1.64</v>
-      </c>
-      <c r="O3" t="e">
-        <f ca="1">#REF!*H3-(D3*I3)-J3</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.7">
+        <f>VLOOKUP(G3,物件金額!B16:C18,2,FALSE)</f>
+        <v>1.62</v>
+      </c>
+      <c r="O3">
+        <f>H3-J3</f>
+        <v>200000</v>
+      </c>
+      <c r="P3" s="2">
+        <f>H3*N3%</f>
+        <v>16200.000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.7">
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.7">
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -810,15 +892,15 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -827,14 +909,16 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -842,15 +926,15 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -859,15 +943,15 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -876,15 +960,15 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -892,6 +976,27 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -930,122 +1035,122 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.7">
@@ -1055,15 +1160,15 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.7">
@@ -1073,10 +1178,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1089,10 +1194,10 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1184,17 +1289,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35025CDD-755F-4A98-AD4A-75BA2B11423B}">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B16" sqref="B16:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>1000000</v>
@@ -1210,7 +1315,7 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>800000</v>
@@ -1226,7 +1331,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>500000</v>
@@ -1242,7 +1347,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>400000</v>
@@ -1258,7 +1363,7 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>50000</v>
@@ -1274,7 +1379,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>40000</v>
@@ -1290,7 +1395,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>30000</v>
@@ -1306,7 +1411,7 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>5000</v>
@@ -1314,7 +1419,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>3000</v>
@@ -1322,7 +1427,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>2000</v>
@@ -1330,10 +1435,34 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.89</v>
       </c>
     </row>
   </sheetData>

--- a/営業粗利計算.xlsx
+++ b/営業粗利計算.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\awesome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8F018B-9473-4FA5-AC71-2F04DF846C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C864FBD2-DC10-4BD4-A6A5-E99B48C3972E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A3C49799-E89F-47EA-A291-9F6F8BC7BADE}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>原価</t>
     <rPh sb="0" eb="2">
@@ -70,13 +70,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残月数</t>
-    <rPh sb="0" eb="3">
-      <t>ザンゲッスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>売値</t>
     <rPh sb="0" eb="2">
       <t>ウリネ</t>
@@ -344,6 +337,23 @@
     <t>リース料金</t>
     <rPh sb="3" eb="5">
       <t>リョウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リース残金</t>
+    <rPh sb="3" eb="5">
+      <t>ザンキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残月数</t>
+    <rPh sb="0" eb="2">
+      <t>ザンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -476,6 +486,108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>71438</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>157163</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>628650</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>185739</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3078" name="Button 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000060C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="68580" rIns="45720" bIns="68580" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="游ゴシック"/>
+                  <a:ea typeface="游ゴシック"/>
+                </a:rPr>
+                <a:t>ボタン </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="游ゴシック"/>
+                <a:ea typeface="游ゴシック"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="游ゴシック"/>
+                <a:ea typeface="游ゴシック"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -774,11 +886,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE15B4A-334A-43D4-A23C-AD11E9189AB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE15B4A-334A-43D4-A23C-AD11E9189AB6}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -793,25 +906,28 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
-        <v>42</v>
+      <c r="F2" t="s">
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
         <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -823,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.7">
@@ -832,7 +948,7 @@
         <v>MX_2000</v>
       </c>
       <c r="C3" s="1">
-        <v>43487</v>
+        <v>43892</v>
       </c>
       <c r="D3" s="2">
         <v>8000</v>
@@ -841,14 +957,14 @@
         <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2">
         <v>1000000</v>
       </c>
       <c r="I3">
         <f ca="1">DATEDIF(C3,TODAY(),"m")</f>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J3">
         <f>VLOOKUP(B3,物件金額!B2:C12,2,FALSE)</f>
@@ -859,8 +975,8 @@
         <v>1.62</v>
       </c>
       <c r="O3">
-        <f>H3-J3</f>
-        <v>200000</v>
+        <f ca="1">H3-J3-(D3*I3)</f>
+        <v>24000</v>
       </c>
       <c r="P3" s="2">
         <f>H3*N3%</f>
@@ -868,22 +984,25 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="D4" s="1"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -894,13 +1013,13 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -911,13 +1030,13 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -928,13 +1047,13 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -945,13 +1064,13 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -962,13 +1081,13 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -979,23 +1098,23 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.7">
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1013,11 +1132,42 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3078" r:id="rId4" name="Button 6">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!カレンダーから入力_Click">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>71438</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>157163</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>628650</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>185738</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FE582C-1CE3-44CA-8459-02DCF7981608}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1035,122 +1185,122 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.7">
@@ -1160,15 +1310,15 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.7">
@@ -1178,10 +1328,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1194,10 +1344,10 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1289,6 +1439,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35025CDD-755F-4A98-AD4A-75BA2B11423B}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1299,7 +1450,7 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>1000000</v>
@@ -1315,7 +1466,7 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>800000</v>
@@ -1331,7 +1482,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>500000</v>
@@ -1347,7 +1498,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>400000</v>
@@ -1363,7 +1514,7 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>50000</v>
@@ -1379,7 +1530,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>40000</v>
@@ -1395,7 +1546,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>30000</v>
@@ -1411,7 +1562,7 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>5000</v>
@@ -1419,7 +1570,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>3000</v>
@@ -1427,7 +1578,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>2000</v>
@@ -1435,7 +1586,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>1000</v>
@@ -1443,7 +1594,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3">
         <v>1.44</v>
@@ -1451,7 +1602,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3">
         <v>1.62</v>
@@ -1459,7 +1610,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3">
         <v>1.89</v>

--- a/営業粗利計算.xlsx
+++ b/営業粗利計算.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\awesome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C864FBD2-DC10-4BD4-A6A5-E99B48C3972E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA29DBB-AA39-4B9F-A655-B21751E15E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A3C49799-E89F-47EA-A291-9F6F8BC7BADE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="物件管理" sheetId="2" r:id="rId2"/>
-    <sheet name="物件金額" sheetId="3" r:id="rId3"/>
+    <sheet name="メインシート" sheetId="1" r:id="rId1"/>
+    <sheet name="顧客情報" sheetId="5" r:id="rId2"/>
+    <sheet name="見積表示" sheetId="4" r:id="rId3"/>
+    <sheet name="物件管理" sheetId="2" r:id="rId4"/>
+    <sheet name="物件金額" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_2019_11_13">顧客情報!$D$4:$D$22</definedName>
     <definedName name="CheckPoint">物件管理!$K$3:$K$8</definedName>
     <definedName name="MX_2000">物件管理!$F$3:$F$8</definedName>
     <definedName name="MX_2661">物件管理!$E$3:$E$8</definedName>
@@ -25,8 +28,16 @@
     <definedName name="PLATIA2">物件管理!$G$3:$G$8</definedName>
     <definedName name="PLATIA2V">物件管理!$H$3:$H$8</definedName>
     <definedName name="UTM">物件管理!$I$3:$I$8</definedName>
+    <definedName name="オリックス">顧客情報!$F$4:$F$22</definedName>
     <definedName name="サーバー">物件管理!$J$3:$J$8</definedName>
     <definedName name="ビジネスフォン">物件管理!$C$3:$C$8</definedName>
+    <definedName name="リース会社">顧客情報!$F$3:$F$22</definedName>
+    <definedName name="リース料金">顧客情報!$E$3:$E$22</definedName>
+    <definedName name="顧客名">顧客情報!$B$3:$B$22</definedName>
+    <definedName name="商材">顧客情報!$C$3:$C$22</definedName>
+    <definedName name="青空不動産">顧客情報!$B$4:$B$22</definedName>
+    <definedName name="導入日">顧客情報!$D$3:$D$22</definedName>
+    <definedName name="複合機" localSheetId="1">顧客情報!$C$4:$C$22</definedName>
     <definedName name="複合機">物件管理!$B$3:$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>原価</t>
     <rPh sb="0" eb="2">
@@ -56,37 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>粗利</t>
-    <rPh sb="0" eb="2">
-      <t>アラリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>料率</t>
-    <rPh sb="0" eb="2">
-      <t>リョウリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>売値</t>
-    <rPh sb="0" eb="2">
-      <t>ウリネ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>契約年数</t>
-    <rPh sb="0" eb="4">
-      <t>ケイヤクネンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複合機</t>
-  </si>
-  <si>
     <t>複合機</t>
     <rPh sb="0" eb="3">
       <t>フクゴウキ</t>
@@ -95,16 +75,10 @@
   </si>
   <si>
     <t>ビジネスフォン</t>
-  </si>
-  <si>
-    <t>ビジネスフォン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>NW</t>
-  </si>
-  <si>
-    <t>NW</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -114,9 +88,6 @@
   <si>
     <t>PLATIA2V</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UTM</t>
   </si>
   <si>
     <t>3段給紙</t>
@@ -204,48 +175,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機器名</t>
-    <rPh sb="0" eb="2">
-      <t>キキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工事内容</t>
-    <rPh sb="0" eb="4">
-      <t>コウジナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>導入日</t>
-    <rPh sb="0" eb="2">
-      <t>ドウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PLATIA2</t>
-  </si>
-  <si>
     <t>MX_2000</t>
-  </si>
-  <si>
-    <t>MX_2000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>MX_2661</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CheckPoint</t>
   </si>
   <si>
     <t>VPNアカウント</t>
@@ -259,58 +194,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機器名</t>
-    <rPh sb="0" eb="3">
-      <t>キキメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>売上－原価　粗利</t>
   </si>
   <si>
     <t>売上×料率(%)＝リース料(月額)</t>
-  </si>
-  <si>
-    <t>月額(現在)</t>
-    <rPh sb="0" eb="2">
-      <t>ゲツガク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゲンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>契約年数(現在)</t>
-    <rPh sb="0" eb="4">
-      <t>ケイヤクネンスウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゲンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6年　1.62</t>
-    <rPh sb="1" eb="2">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5年　1.89</t>
-    <rPh sb="1" eb="2">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7年　1.44</t>
-    <rPh sb="1" eb="2">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>7年リース</t>
@@ -341,19 +228,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リース残金</t>
+    <t>既存機器情報</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>キキジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規導入機器情報</t>
+    <rPh sb="0" eb="8">
+      <t>シンキドウニュウキキジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導入日</t>
+    <rPh sb="0" eb="3">
+      <t>ドウニュウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リース会社</t>
     <rPh sb="3" eb="5">
-      <t>ザンキン</t>
+      <t>ガイシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>残月数</t>
+    <rPh sb="0" eb="3">
+      <t>ザンゲツスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客名</t>
+    <rPh sb="0" eb="3">
+      <t>コキャクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青空不動産</t>
     <rPh sb="0" eb="2">
-      <t>ザンゲツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スウ</t>
+      <t>アオゾラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>フドウサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やまびこ幼稚園</t>
+    <rPh sb="4" eb="7">
+      <t>ヨウチエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オリックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -362,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,8 +321,39 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,6 +451,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -498,16 +496,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
+          <xdr:col>0</xdr:col>
           <xdr:colOff>71438</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>157163</xdr:rowOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>66676</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
+          <xdr:col>0</xdr:col>
           <xdr:colOff>628650</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>185739</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>95251</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -888,246 +886,166 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE15B4A-334A-43D4-A23C-AD11E9189AB6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:P19"/>
+  <dimension ref="B3:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="15.0625" customWidth="1"/>
-    <col min="3" max="3" width="10.8125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="14.8125" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="3" max="14" width="17.9375" customWidth="1"/>
     <col min="16" max="16" width="10.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B3" t="str">
-        <f>C8</f>
-        <v>MX_2000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43892</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="I3">
-        <f ca="1">DATEDIF(C3,TODAY(),"m")</f>
-        <v>22</v>
-      </c>
-      <c r="J3">
-        <f>VLOOKUP(B3,物件金額!B2:C12,2,FALSE)</f>
-        <v>800000</v>
-      </c>
-      <c r="N3">
-        <f>VLOOKUP(G3,物件金額!B16:C18,2,FALSE)</f>
-        <v>1.62</v>
-      </c>
-      <c r="O3">
-        <f ca="1">H3-J3-(D3*I3)</f>
-        <v>24000</v>
-      </c>
-      <c r="P3" s="2">
-        <f>H3*N3%</f>
-        <v>16200.000000000002</v>
-      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="D4" s="1"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="B4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="B16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12" xr:uid="{8E28C838-F5C5-4127-9C10-10D46F71D3CB}">
-      <formula1>"複合機,ビジネスフォン,NW"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C12" xr:uid="{934B1FD7-687B-4A65-AC89-02ADC2F58749}">
-      <formula1>INDIRECT($B8)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D12" xr:uid="{228808D6-9372-46CC-82C0-CC027EDF2B6C}">
-      <formula1>INDIRECT($C8)</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{7D422296-4C6D-4361-BDBE-EE5BBA05759E}">
+      <formula1>顧客名</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1143,16 +1061,16 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!カレンダーから入力_Click">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
+                    <xdr:col>0</xdr:col>
                     <xdr:colOff>71438</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>157163</xdr:rowOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
+                    <xdr:col>0</xdr:col>
                     <xdr:colOff>628650</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>185738</xdr:rowOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1166,16 +1084,365 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0D9781-E010-454C-A81F-098296476842}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B2:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="11" width="16.0625" customWidth="1"/>
+    <col min="12" max="16" width="12.9375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>43782</v>
+      </c>
+      <c r="E3" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>44052</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.7">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789BB39E-4649-444C-AE87-FB29FEA2BACF}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B3:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FE582C-1CE3-44CA-8459-02DCF7981608}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -1185,122 +1452,122 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="K4" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.7">
@@ -1310,15 +1577,15 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.7">
@@ -1328,10 +1595,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1344,10 +1611,10 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1437,20 +1704,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35025CDD-755F-4A98-AD4A-75BA2B11423B}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:K18"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1000000</v>
@@ -1466,7 +1734,7 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>800000</v>
@@ -1482,7 +1750,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B4" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>500000</v>
@@ -1498,7 +1766,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>400000</v>
@@ -1514,7 +1782,7 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>50000</v>
@@ -1530,7 +1798,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>40000</v>
@@ -1546,7 +1814,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>30000</v>
@@ -1562,7 +1830,7 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>5000</v>
@@ -1570,7 +1838,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>3000</v>
@@ -1578,7 +1846,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>2000</v>
@@ -1586,34 +1854,10 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.7">
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.89</v>
       </c>
     </row>
   </sheetData>

--- a/営業粗利計算.xlsx
+++ b/営業粗利計算.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\awesome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA29DBB-AA39-4B9F-A655-B21751E15E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D695F9-DFA7-45A9-B6C3-60FB30E8340D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A3C49799-E89F-47EA-A291-9F6F8BC7BADE}"/>
   </bookViews>
@@ -41,7 +41,6 @@
     <definedName name="複合機">物件管理!$B$3:$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
   <si>
     <t>原価</t>
     <rPh sb="0" eb="2">
@@ -298,6 +297,10 @@
     <rPh sb="0" eb="2">
       <t>ウリアゲ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NTT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -305,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +354,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -499,13 +509,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>71438</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>66676</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>628650</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>95251</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -889,7 +899,7 @@
   <dimension ref="B3:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1088,7 +1098,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -1139,27 +1151,37 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="11">
-        <v>44052</v>
+        <v>42846</v>
       </c>
       <c r="E4" s="3">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.7">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>44052</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1438,7 +1460,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
